--- a/medicine/Handicap/White_Frog/White_Frog.xlsx
+++ b/medicine/Handicap/White_Frog/White_Frog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-White Frog est un film américain écrit par Fabienne Wen et Ellie Wen et réalisé par Quentin Lee[1]. Le film, qui a été présenté en avant-première au Festival international du film asio-américain de San Francisco le 8 mars 2012, une comédie dramatique destinée aux jeunes adultes[2].
+White Frog est un film américain écrit par Fabienne Wen et Ellie Wen et réalisé par Quentin Lee. Le film, qui a été présenté en avant-première au Festival international du film asio-américain de San Francisco le 8 mars 2012, une comédie dramatique destinée aux jeunes adultes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nick Young (Booboo Stewart), est un jeune lycéen américain d'origine asiatique atteint de troubles du spectre de l'autisme qui idolâtre son frère aîné Chaz Young (Harry Shum Jr). Un jour, Chaz est renversé par une voiture et meurt. Les parents (Joan Chen  et B. D. Wong), désemparés, tentent de préserver la mémoire du "fils parfait", tandis que Nick, qui lutte pour surmonter son chagrin, va découvrir les secrets de son frère ainé, ce qui pourrait bien déchirer la famille Young[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nick Young (Booboo Stewart), est un jeune lycéen américain d'origine asiatique atteint de troubles du spectre de l'autisme qui idolâtre son frère aîné Chaz Young (Harry Shum Jr). Un jour, Chaz est renversé par une voiture et meurt. Les parents (Joan Chen  et B. D. Wong), désemparés, tentent de préserver la mémoire du "fils parfait", tandis que Nick, qui lutte pour surmonter son chagrin, va découvrir les secrets de son frère ainé, ce qui pourrait bien déchirer la famille Young. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Quentin Lee
 Scénaristes : Fabienne Wen et Ellie Wen
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Booboo Stewart : Nick Young
 Harry Shum Jr : Chaz Young
@@ -647,8 +665,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2012 : Prix du meilleur long métrage narratif au Philadelphia Asian American Film Festival (en)
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2012 : Prix du meilleur long métrage narratif au Philadelphia Asian American Film Festival (en)
 2013 : Prix du meilleur acteur décerné à Booboo Stewart au FilmOut San Diego (it)</t>
         </is>
       </c>
